--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
@@ -214,28 +214,6 @@
 };</t>
   </si>
   <si>
-    <t>validate1
-{
-validate_PageTitle=Pocket Browser Tests
-};
-validate2
-{
-validate_PageTitle=EMML1.1 Test Index Page
-};
-validate3
-{
-validate_isIconDisplayed=MinimizeButton_xpath,true
-};
-validate4
-{
-validate_AppMinimized=homescreen
-};
-validate5
-{
-validate_isIconDisplayed=MinimizeButton_xpath,false
-};</t>
-  </si>
-  <si>
     <t>Addressbar visibile/hidden</t>
   </si>
   <si>
@@ -656,6 +634,28 @@
 validate_isIconDisplayed=BackButton_xpath,true
 validate_isIconDisplayed=HomeButton_xpath,true
 validate_isIconDisplayed=MinimizeButton_xpath,true
+};</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.1 Test Index Page
+};
+validate3
+{
+validate_isIconDisplayed=MinimizeButton_xpath,true
+};
+validate4
+{
+validate_AppMinimized=com.symbol.enterprisebrowser
+};
+validate5
+{
+validate_isIconDisplayed=MinimizeButton_xpath,false
 };</t>
   </si>
 </sst>
@@ -1209,7 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1303,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1330,7 +1332,7 @@
         <v>33</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1354,10 +1356,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1384,7 +1386,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1408,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>47</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1435,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>49</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1465,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1489,10 +1491,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1510,14 +1512,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1541,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1568,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H13" s="11" t="s">
         <v>34</v>
@@ -1595,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="294" thickBot="1">
+    <row r="15" spans="1:11" ht="306.75" thickBot="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1622,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1649,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1676,10 +1678,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1703,10 +1705,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
@@ -66,14 +66,6 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>wait(3);
-PullConfigxml;
-ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
-ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
-ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
-PushConfigxml;</t>
-  </si>
-  <si>
     <t>Signal</t>
   </si>
   <si>
@@ -657,6 +649,15 @@
 {
 validate_isIconDisplayed=MinimizeButton_xpath,false
 };</t>
+  </si>
+  <si>
+    <t>wait(3);
+PullConfigxml;
+ChangeConfigxml(Configuration/Applications/Application/General,StartPage,&lt;StartPage value="http://127.0.0.1:8082/app/" name="Menu"/&gt;);
+ChangeConfigxml(Configuration,WebServer,&lt;WebServer&gt;endl  &lt;Enabled VALUE="1"/&gt;endl  &lt;Port VALUE="8082"/&gt;endl  &lt;WebFolder VALUE="\\auto\\PB\"/&gt;endl  &lt;Public VALUE="1"/&gt;endl&lt;/WebServer&gt;endl);
+ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
+ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
+PushConfigxml;</t>
   </si>
 </sst>
 </file>
@@ -1209,9 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1257,7 +1256,7 @@
       </c>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="204.75" thickBot="1">
+    <row r="2" spans="1:11" ht="243" thickBot="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1275,7 +1274,7 @@
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="11" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="2" t="s">
@@ -1302,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1323,16 +1322,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1350,16 +1349,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1377,16 +1376,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1404,16 +1403,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="17">
         <v>3</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>45</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1431,16 +1430,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1458,16 +1457,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1485,16 +1484,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1512,14 +1511,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1537,16 +1536,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1564,16 +1563,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1591,16 +1590,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1618,16 +1617,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1645,16 +1644,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1672,16 +1671,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1699,16 +1698,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/EBPB_EMML11.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -658,6 +658,62 @@
 ChangeConfigxml(Configuration/Screen,FullScreen,&lt;FullScreen value="1"/&gt;);
 ChangeConfigxml(Configuration/Applications/Application,isWindowsKey,&lt;isWindowsKey value="0"/&gt;);
 PushConfigxml;</t>
+  </si>
+  <si>
+    <t>Linear Gesture</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(EMML11_test_link);
+wait(2);
+validate2;
+link_Click(gesture11_test_link);
+DrawGesture(linear_default);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.1 Test Index Page
+};
+validate3
+{
+validate_Result=Gesture detected for 1th time
+validate_Result=swipe
+};</t>
+  </si>
+  <si>
+    <t>Hold Gesture</t>
+  </si>
+  <si>
+    <t>wait(3);
+validate1;
+link_Click(EMML11_test_link);
+wait(2);
+validate2;
+link_Click(gesture11_test_link);
+DrawGesture(hold,100,100,6000);
+validate3;</t>
+  </si>
+  <si>
+    <t>validate1
+{
+validate_PageTitle=Pocket Browser Tests
+};
+validate2
+{
+validate_PageTitle=EMML1.1 Test Index Page
+};
+validate3
+{
+validate_Result=Gesture detected for 3th time
+validate_Result=press
+};</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1712,6 +1768,60 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="192" thickBot="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" ht="192" thickBot="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
